--- a/DASHBOARD.xlsx
+++ b/DASHBOARD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/730ba681bf94e94e/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D9AC5995-AA89-4844-95EE-18EF3BE42987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8DB729C-BB7A-477D-8640-C8A4C03ED786}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0865C1-34FC-44E2-8DC2-AF30882B730A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{4F67E657-7E16-4841-9CBB-8F6239CF674C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{4F67E657-7E16-4841-9CBB-8F6239CF674C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="118">
   <si>
     <t>EEID</t>
   </si>
@@ -1149,37 +1149,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>TITLE!$A$4:$A$14</c:f>
+              <c:f>TITLE!$A$4:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v> system manager</c:v>
+                  <c:v>Analyst</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Account Representative</c:v>
+                  <c:v>Director</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Analyst</c:v>
+                  <c:v>Manger</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Controls engineer</c:v>
+                  <c:v>sr.analyst</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Director</c:v>
+                  <c:v>Sr.manger</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Manger</c:v>
+                  <c:v>Technical Architect</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>sr.analyst</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Sr.manger</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Technical Architect</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>Vice President</c:v>
                 </c:pt>
               </c:strCache>
@@ -1187,39 +1178,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TITLE!$B$4:$B$14</c:f>
+              <c:f>TITLE!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,29 +1729,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>DEPT!$A$4:$A$6</c:f>
+              <c:f>DEPT!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accounting</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>IT</c:v>
+                  <c:v>Finance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DEPT!$B$4:$B$6</c:f>
+              <c:f>DEPT!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3050,37 +3026,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>TITLE!$A$4:$A$14</c:f>
+              <c:f>TITLE!$A$4:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v> system manager</c:v>
+                  <c:v>Analyst</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Account Representative</c:v>
+                  <c:v>Director</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Analyst</c:v>
+                  <c:v>Manger</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Controls engineer</c:v>
+                  <c:v>sr.analyst</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Director</c:v>
+                  <c:v>Sr.manger</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Manger</c:v>
+                  <c:v>Technical Architect</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>sr.analyst</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Sr.manger</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Technical Architect</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>Vice President</c:v>
                 </c:pt>
               </c:strCache>
@@ -3088,39 +3055,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TITLE!$B$4:$B$14</c:f>
+              <c:f>TITLE!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3920,29 +3878,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>DEPT!$A$4:$A$6</c:f>
+              <c:f>DEPT!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accounting</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>IT</c:v>
+                  <c:v>Finance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DEPT!$B$4:$B$6</c:f>
+              <c:f>DEPT!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7650,8 +7602,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>175259</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="Gender">
@@ -7674,7 +7626,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7728,8 +7680,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="Hire date">
@@ -7747,12 +7699,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Hire date"/>
+              <tsle:timeslicer name="Hire date"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9391,7 +9343,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9248CDD8-2F77-4FBD-9BC1-3DD616471F95}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9414,7 +9366,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -9453,18 +9405,9 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <rowItems count="8">
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -9528,7 +9471,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94016B5A-BCF5-41B8-A893-8611D1F26E5D}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9652,12 +9595,9 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="2">
     <i>
-      <x/>
-    </i>
-    <i>
-      <x v="4"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -9700,12 +9640,12 @@
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="8" type="dateBetween" evalOrder="-1" id="24" name="Hire date">
+    <filter fld="8" type="dateBetween" evalOrder="-1" id="32" name="Hire date">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="43466"/>
-            <customFilter operator="lessThanOrEqual" val="43830"/>
+            <customFilter operator="greaterThanOrEqual" val="43101"/>
+            <customFilter operator="lessThanOrEqual" val="43465"/>
           </customFilters>
         </filterColumn>
       </autoFilter>
@@ -9951,7 +9891,7 @@
   <data>
     <tabular pivotCacheId="1429321237">
       <items count="2">
-        <i x="0" s="1"/>
+        <i x="0"/>
         <i x="1" s="1"/>
       </items>
     </tabular>
@@ -10289,7 +10229,7 @@
     <pivotTable tabId="7" name="PivotTable7"/>
   </pivotTables>
   <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="978102367" filterType="dateBetween">
-    <selection startDate="2019-01-01T00:00:00" endDate="2019-12-31T00:00:00"/>
+    <selection startDate="2018-01-01T00:00:00" endDate="2018-12-31T00:00:00"/>
     <bounds startDate="1995-01-01T00:00:00" endDate="2022-01-01T00:00:00"/>
   </state>
 </timelineCacheDefinition>
@@ -11364,7 +11304,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42341E80-899A-4B79-8F68-B6D296AD3BBB}">
-  <dimension ref="A3:B14"/>
+  <dimension ref="A3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
@@ -11372,7 +11312,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="12" width="9.109375" bestFit="1" customWidth="1"/>
@@ -11391,15 +11331,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -11407,31 +11347,31 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -11439,7 +11379,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
@@ -11447,34 +11387,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="B11" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="5">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -11485,7 +11401,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA859F9-CA8D-4F35-958A-55CF238DF51A}">
-  <dimension ref="A3:B6"/>
+  <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
@@ -11507,26 +11423,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="B4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B6">
-        <v>3</v>
+      <c r="B5" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
